--- a/DBDocuments/NormalizationKindOf.xlsx
+++ b/DBDocuments/NormalizationKindOf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Restart\2_ObjectOrientedProgramming\C08_ProjetoII_2_OOP\DBDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A13D4EF-2657-4DBC-B1CE-DF814134129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED8929-042A-4261-B685-789F5DE2817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19D4EF6D-9EDB-4509-A304-66BC811F8DC4}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{19D4EF6D-9EDB-4509-A304-66BC811F8DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Code</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>String(50), R</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +242,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,18 +325,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -330,6 +357,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,284 +703,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE09263-B394-47B4-B812-B9572458553E}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:K9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="D30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DBDocuments/NormalizationKindOf.xlsx
+++ b/DBDocuments/NormalizationKindOf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Restart\2_ObjectOrientedProgramming\C08_ProjetoII_2_OOP\DBDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED8929-042A-4261-B685-789F5DE2817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD0F1A-CAE6-4E88-A145-E236A913E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{19D4EF6D-9EDB-4509-A304-66BC811F8DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19D4EF6D-9EDB-4509-A304-66BC811F8DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
